--- a/protists/terrestrial_protists/terrestrial_protist_data.xlsx
+++ b/protists/terrestrial_protists/terrestrial_protist_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Density of Individuals" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
     <t xml:space="preserve">Testate amoebae</t>
   </si>
   <si>
-    <t xml:space="preserve">Taken from Table 5.3 in Biogeochemistry by </t>
+    <t xml:space="preserve">Taken from Table 5.3 in Biogeochemistry by Schlesinger &amp; Bernhardt</t>
   </si>
   <si>
     <t xml:space="preserve">Biome</t>
@@ -711,13 +711,15 @@
   </sheetPr>
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5107,7 +5109,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.1887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,6 +5745,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6032,13 +6039,14 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.219387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
